--- a/TestData/NewDemand.xlsx
+++ b/TestData/NewDemand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KiranPatil\GITHUB WORKSPACE\ERS_Automation_Team2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067EB6B0-16FD-41D0-873A-825FE642FC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A411E8-4A6C-4C0C-9260-BC494BE4D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>department</t>
   </si>
@@ -96,13 +96,19 @@
   </si>
   <si>
     <t>C:\Users\KiranPatil\GITHUB WORKSPACE\ERS_Automation_Team2\TestData\samplepdf.pdf</t>
+  </si>
+  <si>
+    <t>messgae</t>
+  </si>
+  <si>
+    <t>Demand created successfully!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +135,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,11 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -452,7 +465,7 @@
     <col min="12" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +505,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -520,6 +536,9 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/NewDemand.xlsx
+++ b/TestData/NewDemand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KiranPatil\GITHUB WORKSPACE\ERS_Automation_Team2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A411E8-4A6C-4C0C-9260-BC494BE4D538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853945E-8C4E-4B3D-9ECF-F5F213CBD788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>department</t>
   </si>
@@ -102,13 +102,28 @@
   </si>
   <si>
     <t>Demand created successfully!!</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Senior Consultant-Automation</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Project Hire</t>
+  </si>
+  <si>
+    <t>Project Test 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,12 @@
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -519,9 +540,7 @@
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
@@ -541,7 +560,40 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
